--- a/Anil Resume/abc.xlsx
+++ b/Anil Resume/abc.xlsx
@@ -7,7 +7,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
+    <t>Eporner</t>
+  </si>
+  <si>
+    <t>Qorno</t>
+  </si>
+  <si>
     <t>Alexis doll</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>Patricia Trish</t>
   </si>
   <si>
+    <t>Queenie Sateen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rylee Blake </t>
   </si>
   <si>
@@ -86,6 +95,12 @@
     <t>xwife Karen</t>
   </si>
   <si>
+    <t>Yasmin Scott</t>
+  </si>
+  <si>
+    <t>Zara Durose</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anissa Jolie </t>
   </si>
   <si>
@@ -140,6 +155,9 @@
     <t>Victoria voxxx</t>
   </si>
   <si>
+    <t>Whitney Wright</t>
+  </si>
+  <si>
     <t>Alison Tyler</t>
   </si>
   <si>
@@ -155,6 +173,9 @@
     <t xml:space="preserve">Ella Knox </t>
   </si>
   <si>
+    <t>Gal Ritchie</t>
+  </si>
+  <si>
     <t>Hadley Viscara</t>
   </si>
   <si>
@@ -176,6 +197,9 @@
     <t>Noelle Easton</t>
   </si>
   <si>
+    <t>Paisley Porter</t>
+  </si>
+  <si>
     <t>Riley Nixon</t>
   </si>
   <si>
@@ -203,6 +227,12 @@
     <t xml:space="preserve">Elizabeth Skylar </t>
   </si>
   <si>
+    <t>Gia Derza</t>
+  </si>
+  <si>
+    <t>Haley Spades</t>
+  </si>
+  <si>
     <t>Julia Ann</t>
   </si>
   <si>
@@ -218,6 +248,9 @@
     <t>Naomi Ryder</t>
   </si>
   <si>
+    <t>Purple Bitch</t>
+  </si>
+  <si>
     <t>Ryan Reid</t>
   </si>
   <si>
@@ -245,6 +278,9 @@
     <t>Ellie Nova</t>
   </si>
   <si>
+    <t>Georgie Lyall</t>
+  </si>
+  <si>
     <t>juicy beca</t>
   </si>
   <si>
@@ -260,18 +296,30 @@
     <t>Nika venom</t>
   </si>
   <si>
+    <t>Rayveness</t>
+  </si>
+  <si>
     <t>Sara blonde</t>
   </si>
   <si>
+    <t>Tana Lea</t>
+  </si>
+  <si>
     <t>Vanessa Vega</t>
   </si>
   <si>
     <t>alyx star</t>
   </si>
   <si>
+    <t>Bella Rolland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chloe Cooper </t>
   </si>
   <si>
+    <t>Dana Vespoli</t>
+  </si>
+  <si>
     <t>Eva Nyx</t>
   </si>
   <si>
@@ -287,15 +335,33 @@
     <t>Maria wars</t>
   </si>
   <si>
+    <t>Nikita Denise</t>
+  </si>
+  <si>
+    <t>Rachael Cavalli</t>
+  </si>
+  <si>
     <t>Sara stone</t>
   </si>
   <si>
+    <t>Taylor Nicole</t>
+  </si>
+  <si>
+    <t>Violet Starr</t>
+  </si>
+  <si>
     <t>Angela white</t>
   </si>
   <si>
+    <t>Britney Light</t>
+  </si>
+  <si>
     <t>Charlotte sins</t>
   </si>
   <si>
+    <t>Darling Danika</t>
+  </si>
+  <si>
     <t>Ella Reese</t>
   </si>
   <si>
@@ -311,15 +377,36 @@
     <t>mary popiense</t>
   </si>
   <si>
+    <t>Natasha Malkova</t>
+  </si>
+  <si>
+    <t>Riley Reign</t>
+  </si>
+  <si>
     <t>Susy gala</t>
   </si>
   <si>
+    <t>Tiana Blow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Voxxx </t>
+  </si>
+  <si>
     <t xml:space="preserve">anna Claire </t>
   </si>
   <si>
+    <t>Brenna Sparks</t>
+  </si>
+  <si>
     <t>Chloe surreal</t>
   </si>
   <si>
+    <t>Daphne Rosen</t>
+  </si>
+  <si>
+    <t>Emma Magnolia</t>
+  </si>
+  <si>
     <t>Jayden James</t>
   </si>
   <si>
@@ -332,42 +419,78 @@
     <t>Mia malkova</t>
   </si>
   <si>
+    <t>Nickey Huntsman</t>
+  </si>
+  <si>
+    <t>Rebecca Vanguard</t>
+  </si>
+  <si>
     <t>Savannah bond</t>
   </si>
   <si>
+    <t>Victoria Summers</t>
+  </si>
+  <si>
     <t>Andressa urach</t>
   </si>
   <si>
     <t>Chanel Preston</t>
   </si>
   <si>
+    <t>Diana Rius</t>
+  </si>
+  <si>
+    <t>Eva Sedona</t>
+  </si>
+  <si>
     <t>jewelz Blu</t>
   </si>
   <si>
+    <t>Kenzie Taylor</t>
+  </si>
+  <si>
     <t xml:space="preserve">lana Rhoades </t>
   </si>
   <si>
     <t xml:space="preserve">Melissa Stratton </t>
   </si>
   <si>
+    <t>Natalie Brooks</t>
+  </si>
+  <si>
     <t>Sarah vandella</t>
   </si>
   <si>
+    <t>Vanessa Sky</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andi Avalon </t>
   </si>
   <si>
     <t>Charly summer</t>
   </si>
   <si>
+    <t>Demi Hawks</t>
+  </si>
+  <si>
+    <t>Ember Stone</t>
+  </si>
+  <si>
     <t>Jenna Starr</t>
   </si>
   <si>
+    <t>Kenzie Reeves</t>
+  </si>
+  <si>
     <t>Lilly hall</t>
   </si>
   <si>
     <t>Madi Collins</t>
   </si>
   <si>
+    <t>Natalia Starr</t>
+  </si>
+  <si>
     <t>shinaryen</t>
   </si>
   <si>
@@ -377,9 +500,15 @@
     <t>Catherine A</t>
   </si>
   <si>
+    <t>Danni Rivers</t>
+  </si>
+  <si>
     <t>jade kiss</t>
   </si>
   <si>
+    <t>Karma Rx</t>
+  </si>
+  <si>
     <t>Lexi luna</t>
   </si>
   <si>
@@ -395,9 +524,15 @@
     <t>Carmen De Luz</t>
   </si>
   <si>
+    <t>Demi Morgan</t>
+  </si>
+  <si>
     <t>Jazmin luv</t>
   </si>
   <si>
+    <t>Kylie Shay</t>
+  </si>
+  <si>
     <t>Lauren Phillips</t>
   </si>
   <si>
@@ -413,9 +548,15 @@
     <t xml:space="preserve">Casca Akashova </t>
   </si>
   <si>
+    <t>Dixie Jewel</t>
+  </si>
+  <si>
     <t>jane wilde</t>
   </si>
   <si>
+    <t>Kenzie Love</t>
+  </si>
+  <si>
     <t>leana lovings</t>
   </si>
   <si>
@@ -431,6 +572,12 @@
     <t>Charlie forde</t>
   </si>
   <si>
+    <t>Jia Lissa</t>
+  </si>
+  <si>
+    <t>Keely Rose</t>
+  </si>
+  <si>
     <t>Lili Lili</t>
   </si>
   <si>
@@ -446,6 +593,12 @@
     <t>Cami Strella</t>
   </si>
   <si>
+    <t>Jessica Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendra Sunderland </t>
+  </si>
+  <si>
     <t>lumi ray</t>
   </si>
   <si>
@@ -458,30 +611,177 @@
     <t>Ashlyn peaks</t>
   </si>
   <si>
+    <t>Christie Stevens</t>
+  </si>
+  <si>
+    <t>Jodi Taylor</t>
+  </si>
+  <si>
+    <t>Kiara Lord</t>
+  </si>
+  <si>
     <t>Lola Sinn</t>
   </si>
   <si>
+    <t>Magdalene St. Michaels</t>
+  </si>
+  <si>
     <t>Serena Santos</t>
   </si>
   <si>
     <t>Aya Benetti</t>
   </si>
   <si>
+    <t>Carla Boom</t>
+  </si>
+  <si>
+    <t>Joanna Angel</t>
+  </si>
+  <si>
+    <t>Lily Lou</t>
+  </si>
+  <si>
+    <t>Martina Smeraldi</t>
+  </si>
+  <si>
     <t>Sheena Ryder</t>
   </si>
   <si>
     <t>amilia onyx</t>
   </si>
   <si>
+    <t>Christiana Cinn</t>
+  </si>
+  <si>
+    <t>Jasmine Wilde</t>
+  </si>
+  <si>
+    <t>Lena Reif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Morgan </t>
+  </si>
+  <si>
+    <t>Stella Cox</t>
+  </si>
+  <si>
     <t>Anna bell peaks</t>
   </si>
   <si>
+    <t>Cassie Lenoir</t>
+  </si>
+  <si>
+    <t>Lily Larimar</t>
+  </si>
+  <si>
+    <t>Misha Maver</t>
+  </si>
+  <si>
+    <t>Scarlett Jones</t>
+  </si>
+  <si>
     <t>amber Jayne</t>
   </si>
   <si>
+    <t>Lady Gang</t>
+  </si>
+  <si>
+    <t>Madison Spears</t>
+  </si>
+  <si>
+    <t>Sienna West</t>
+  </si>
+  <si>
     <t>Antonia sainz</t>
   </si>
   <si>
+    <t>Lola Foxx</t>
+  </si>
+  <si>
+    <t>Misha Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siri </t>
+  </si>
+  <si>
+    <t>Alina Lopez</t>
+  </si>
+  <si>
+    <t>Lucia Love</t>
+  </si>
+  <si>
+    <t>Myra Moans</t>
+  </si>
+  <si>
+    <t>Sara Luvv</t>
+  </si>
+  <si>
+    <t>Abigaill Morris</t>
+  </si>
+  <si>
+    <t>Lyra Lockhart</t>
+  </si>
+  <si>
+    <t>Mimi Boliviana</t>
+  </si>
+  <si>
+    <t>Samantha Rone</t>
+  </si>
+  <si>
+    <t>Aria Lee</t>
+  </si>
+  <si>
+    <t>Leah Gotti</t>
+  </si>
+  <si>
+    <t>Melody Marks</t>
+  </si>
+  <si>
+    <t>Spencer Scott</t>
+  </si>
+  <si>
+    <t>Azul Hermosa</t>
+  </si>
+  <si>
+    <t>Simony Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabelle Raphael </t>
+  </si>
+  <si>
+    <t>Serena Hill</t>
+  </si>
+  <si>
+    <t>Alex Coa</t>
+  </si>
+  <si>
+    <t>Silvana Lee</t>
+  </si>
+  <si>
+    <t>Alexa Payne</t>
+  </si>
+  <si>
+    <t>Samantha Reigns</t>
+  </si>
+  <si>
+    <t>Aria Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angell Summers </t>
+  </si>
+  <si>
+    <t>Angie Lynx</t>
+  </si>
+  <si>
+    <t>April Snow</t>
+  </si>
+  <si>
+    <t>Aria Banks</t>
+  </si>
+  <si>
+    <t>Alice Peachy</t>
+  </si>
+  <si>
     <t>Alex D</t>
   </si>
   <si>
@@ -524,6 +824,9 @@
     <t>Tommy pistol</t>
   </si>
   <si>
+    <t>Victor Ray</t>
+  </si>
+  <si>
     <t>Will Pounder</t>
   </si>
   <si>
@@ -569,6 +872,9 @@
     <t>Tommy Gunn</t>
   </si>
   <si>
+    <t>Wolf Hudson</t>
+  </si>
+  <si>
     <t>Chris Diamond</t>
   </si>
   <si>
@@ -621,6 +927,9 @@
   </si>
   <si>
     <t>Jay Romero</t>
+  </si>
+  <si>
+    <t>Mark Davis</t>
   </si>
   <si>
     <t>Jake Adams</t>
@@ -630,11 +939,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -646,14 +961,30 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,8 +1284,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" topLeftCell="B1">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -969,522 +1300,858 @@
     <col min="8" max="8" width="12.88672" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.66406" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.55469" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.77734" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.33203" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.33203" customWidth="1"/>
     <col min="20" max="20" width="12.66406" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.66406" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.55469" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44141" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.77734" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" s="1"/>
+      <c r="Q1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="W2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="X2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="Y2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Z2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="R3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="W3" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="P4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="R4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
+      <c r="S4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="T4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
+      <c r="V4" t="s">
         <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="P5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="R5" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="s">
+      <c r="S5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>79</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>80</v>
-      </c>
-      <c r="V5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
       </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="T7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="N8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" t="s">
+        <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="T8" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>132</v>
+      </c>
+      <c r="N9" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" t="s">
+        <v>134</v>
       </c>
       <c r="S9" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="V9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>141</v>
+      </c>
+      <c r="K10" t="s">
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>144</v>
+      </c>
+      <c r="N10" t="s">
+        <v>145</v>
       </c>
       <c r="S10" t="s">
-        <v>116</v>
+        <v>146</v>
+      </c>
+      <c r="V10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
+        <v>153</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>155</v>
+      </c>
+      <c r="N11" t="s">
+        <v>156</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>161</v>
+      </c>
+      <c r="K12" t="s">
+        <v>162</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>169</v>
+      </c>
+      <c r="K13" t="s">
+        <v>170</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="S13" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" t="s">
+        <v>178</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="S14" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>183</v>
+      </c>
+      <c r="J15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" t="s">
+        <v>185</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="S15" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s">
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
+        <v>194</v>
       </c>
       <c r="S16" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" t="s">
+        <v>201</v>
       </c>
       <c r="S17" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" t="s">
+        <v>206</v>
+      </c>
+      <c r="M18" t="s">
+        <v>207</v>
+      </c>
+      <c r="S18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" t="s">
+        <v>213</v>
+      </c>
+      <c r="S19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s">
+        <v>217</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>220</v>
+      </c>
+      <c r="L21" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" t="s">
+        <v>222</v>
+      </c>
+      <c r="S21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="s">
+        <v>226</v>
+      </c>
+      <c r="S22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s">
+        <v>230</v>
+      </c>
+      <c r="S23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s">
+        <v>234</v>
+      </c>
+      <c r="S24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s">
+        <v>238</v>
+      </c>
+      <c r="S25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="S27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="S28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="S29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1494,8 +2161,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1520,160 +2187,169 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="Q1" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="R1" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>267</v>
+      </c>
+      <c r="V1" t="s">
+        <v>268</v>
       </c>
       <c r="W1" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="X1" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="Z1" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="T2" t="s">
-        <v>182</v>
+        <v>283</v>
+      </c>
+      <c r="W2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="R3" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="S3" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="T3" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="R4" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>302</v>
+      </c>
+      <c r="M6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="7">
       <c r="J7" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
